--- a/scripts/2022/2022_06_03_heatmap_temprisk_without_planprices/heatmap_temprisk_power_B2C_P2H_LEGACY_on_2022-06-03.xlsx
+++ b/scripts/2022/2022_06_03_heatmap_temprisk_without_planprices/heatmap_temprisk_power_B2C_P2H_LEGACY_on_2022-06-03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruud.wijtvliet\Ruud\Python\dev\lichtblyck\scripts\2022\2022_06_03_heatmap_temprisk_without_planprices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08203618-F8A1-42A9-A513-6207669DA98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3E8D72-D8A8-4396-BB15-4D6161F32DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="-110" windowWidth="36610" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="21">
   <si>
     <t>ts_left</t>
   </si>
@@ -55,25 +55,13 @@
     <t>Temperature scenarios</t>
   </si>
   <si>
-    <t>Temperatur vs Norm [deg]</t>
-  </si>
-  <si>
     <t>Volume vs Norm [%]</t>
   </si>
   <si>
     <t>Table values:</t>
   </si>
   <si>
-    <t>Portfolio price</t>
-  </si>
-  <si>
     <t>Cost increase</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>Eur</t>
   </si>
   <si>
     <t>Eur/MWh</t>
@@ -93,14 +81,36 @@
   <si>
     <t>PFC [%]</t>
   </si>
+  <si>
+    <t>Increase in portfolio price under</t>
+  </si>
+  <si>
+    <t>various scenarios.</t>
+  </si>
+  <si>
+    <t>Center: current portfolio price.</t>
+  </si>
+  <si>
+    <t>Values in [Eur/MWh]</t>
+  </si>
+  <si>
+    <t>Power B2C P2H Legacy</t>
+  </si>
+  <si>
+    <t>Temperatur vs Norm [degC]</t>
+  </si>
+  <si>
+    <t>MEur</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%"/>
+    <numFmt numFmtId="166" formatCode="\+#,##0.00;\-#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -126,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +398,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -390,302 +406,359 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="5" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1032,2370 +1105,2378 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="K3:AE35"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="4" customWidth="1"/>
-    <col min="4" max="10" width="8.7265625" style="4"/>
-    <col min="11" max="13" width="9" style="4" customWidth="1"/>
-    <col min="14" max="14" width="2.26953125" style="4" customWidth="1"/>
-    <col min="15" max="20" width="9" style="4" customWidth="1"/>
-    <col min="21" max="21" width="2.90625" style="4" customWidth="1"/>
-    <col min="22" max="24" width="9" style="4" customWidth="1"/>
-    <col min="25" max="25" width="2.26953125" style="4" customWidth="1"/>
-    <col min="26" max="30" width="9" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="3" customWidth="1"/>
+    <col min="4" max="10" width="8.7265625" style="3"/>
+    <col min="11" max="13" width="9" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.26953125" style="3" customWidth="1"/>
+    <col min="15" max="20" width="9" style="3" customWidth="1"/>
+    <col min="21" max="21" width="2.90625" style="3" customWidth="1"/>
+    <col min="22" max="24" width="9" style="3" customWidth="1"/>
+    <col min="25" max="25" width="2.26953125" style="3" customWidth="1"/>
+    <col min="26" max="30" width="9" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f>q!C1</f>
         <v>-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <f>q!D1</f>
         <v>-1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <f>q!E1</f>
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <f>q!F1</f>
         <v>1</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <f>q!G1</f>
         <v>2</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="K3" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="100"/>
+      <c r="O4" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="W4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="L4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
-      <c r="W4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
+      <c r="Z4" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="str">
+      <c r="E5" s="14" t="str">
         <f>TEXT(q!C2/q!$E2-1,"+0%;-0%")</f>
         <v>+51%</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="14" t="str">
         <f>TEXT(q!D2/q!$E2-1,"+0%;-0%")</f>
         <v>+22%</v>
       </c>
-      <c r="G5" s="17" t="str">
+      <c r="G5" s="15" t="str">
         <f>TEXT(q!E2/q!$E2-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="H5" s="16" t="str">
+      <c r="H5" s="14" t="str">
         <f>TEXT(q!F2/q!$E2-1,"+0%;-0%")</f>
         <v>-17%</v>
       </c>
-      <c r="I5" s="18" t="str">
+      <c r="I5" s="16" t="str">
         <f>TEXT(q!G2/q!$E2-1,"0%;-0%")</f>
         <v>-28%</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="K5" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="6">
         <f>q!C1</f>
         <v>-2</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <f>q!D1</f>
         <v>-1</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="8">
         <f>q!E1</f>
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="7">
         <f>q!F1</f>
         <v>1</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <f>q!G1</f>
         <v>2</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="8">
+      <c r="W5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="6">
         <f>q!C1</f>
         <v>-2</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="7">
         <f>q!D1</f>
         <v>-1</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="8">
         <f>q!E1</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="7">
         <f>q!F1</f>
         <v>1</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="9">
         <f>q!G1</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E6" s="18" t="str">
         <f>TEXT(q!C3/q!$E3-1,"+0%;-0%")</f>
         <v>+18%</v>
       </c>
-      <c r="F6" s="20" t="str">
+      <c r="F6" s="18" t="str">
         <f>TEXT(q!D3/q!$E3-1,"+0%;-0%")</f>
         <v>+9%</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="19" t="str">
         <f>TEXT(q!E3/q!$E3-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="18" t="str">
         <f>TEXT(q!F3/q!$E3-1,"+0%;-0%")</f>
         <v>-9%</v>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I6" s="20" t="str">
         <f>TEXT(q!G3/q!$E3-1,"0%;-0%")</f>
         <v>-18%</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="W6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="14"/>
+      <c r="K6" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="W6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="22" t="str">
         <f>TEXT(q!C4/q!$E4-1,"+0%;-0%")</f>
         <v>+14%</v>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="F7" s="22" t="str">
         <f>TEXT(q!D4/q!$E4-1,"+0%;-0%")</f>
         <v>+7%</v>
       </c>
-      <c r="G7" s="25" t="str">
+      <c r="G7" s="23" t="str">
         <f>TEXT(q!E4/q!$E4-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="H7" s="24" t="str">
+      <c r="H7" s="22" t="str">
         <f>TEXT(q!F4/q!$E4-1,"+0%;-0%")</f>
         <v>-7%</v>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="24" t="str">
         <f>TEXT(q!G4/q!$E4-1,"0%;-0%")</f>
         <v>-14%</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="27" t="str">
+      <c r="K7" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="25" t="str">
         <f>TEXT(q!C2/q!$E2-1,"+0%;-0%")</f>
         <v>+51%</v>
       </c>
-      <c r="P7" s="16" t="str">
+      <c r="P7" s="14" t="str">
         <f>TEXT(q!D2/q!$E2-1,"+0%;-0%")</f>
         <v>+22%</v>
       </c>
-      <c r="Q7" s="17" t="str">
+      <c r="Q7" s="15" t="str">
         <f>TEXT(q!E2/q!$E2-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="R7" s="16" t="str">
+      <c r="R7" s="14" t="str">
         <f>TEXT(q!F2/q!$E2-1,"+0%;-0%")</f>
         <v>-17%</v>
       </c>
-      <c r="S7" s="18" t="str">
+      <c r="S7" s="16" t="str">
         <f>TEXT(q!G2/q!$E2-1,"0%;-0%")</f>
         <v>-28%</v>
       </c>
-      <c r="T7" s="28" t="s">
+      <c r="T7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Z7" s="27" t="str">
+      <c r="Z7" s="25" t="str">
         <f>TEXT(q!C2/q!$E2-1,"+0%;-0%")</f>
         <v>+51%</v>
       </c>
-      <c r="AA7" s="16" t="str">
+      <c r="AA7" s="14" t="str">
         <f>TEXT(q!D2/q!$E2-1,"+0%;-0%")</f>
         <v>+22%</v>
       </c>
-      <c r="AB7" s="17" t="str">
+      <c r="AB7" s="15" t="str">
         <f>TEXT(q!E2/q!$E2-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="AC7" s="16" t="str">
+      <c r="AC7" s="14" t="str">
         <f>TEXT(q!F2/q!$E2-1,"+0%;-0%")</f>
         <v>-17%</v>
       </c>
-      <c r="AD7" s="18" t="str">
+      <c r="AD7" s="16" t="str">
         <f>TEXT(q!G2/q!$E2-1,"0%;-0%")</f>
         <v>-28%</v>
       </c>
-      <c r="AE7" s="28" t="s">
+      <c r="AE7" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="O8" s="32" t="str">
+      <c r="E8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="K8" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="30" t="str">
         <f>TEXT(q!C3/q!$E3-1,"+0%;-0%")</f>
         <v>+18%</v>
       </c>
-      <c r="P8" s="20" t="str">
+      <c r="P8" s="18" t="str">
         <f>TEXT(q!D3/q!$E3-1,"+0%;-0%")</f>
         <v>+9%</v>
       </c>
-      <c r="Q8" s="21" t="str">
+      <c r="Q8" s="19" t="str">
         <f>TEXT(q!E3/q!$E3-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="R8" s="20" t="str">
+      <c r="R8" s="18" t="str">
         <f>TEXT(q!F3/q!$E3-1,"+0%;-0%")</f>
         <v>-9%</v>
       </c>
-      <c r="S8" s="22" t="str">
+      <c r="S8" s="20" t="str">
         <f>TEXT(q!G3/q!$E3-1,"0%;-0%")</f>
         <v>-18%</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="T8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="32" t="str">
+      <c r="Z8" s="30" t="str">
         <f>TEXT(q!C3/q!$E3-1,"+0%;-0%")</f>
         <v>+18%</v>
       </c>
-      <c r="AA8" s="20" t="str">
+      <c r="AA8" s="18" t="str">
         <f>TEXT(q!D3/q!$E3-1,"+0%;-0%")</f>
         <v>+9%</v>
       </c>
-      <c r="AB8" s="21" t="str">
+      <c r="AB8" s="19" t="str">
         <f>TEXT(q!E3/q!$E3-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="AC8" s="20" t="str">
+      <c r="AC8" s="18" t="str">
         <f>TEXT(q!F3/q!$E3-1,"+0%;-0%")</f>
         <v>-9%</v>
       </c>
-      <c r="AD8" s="22" t="str">
+      <c r="AD8" s="20" t="str">
         <f>TEXT(q!G3/q!$E3-1,"0%;-0%")</f>
         <v>-18%</v>
       </c>
-      <c r="AE8" s="33" t="s">
+      <c r="AE8" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <f>q!C2</f>
         <v>138491.18776096491</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="32">
         <f>q!D2</f>
         <v>112073.9283006155</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="33">
         <f>q!E2</f>
         <v>91523.498000000007</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="32">
         <f>q!F2</f>
         <v>76152.118236504612</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="34">
         <f>q!G2</f>
         <v>65564.820238493077</v>
       </c>
-      <c r="O9" s="37" t="str">
+      <c r="K9" s="100"/>
+      <c r="O9" s="35" t="str">
         <f>TEXT(q!C4/q!$E4-1,"+0%;-0%")</f>
         <v>+14%</v>
       </c>
-      <c r="P9" s="24" t="str">
+      <c r="P9" s="22" t="str">
         <f>TEXT(q!D4/q!$E4-1,"+0%;-0%")</f>
         <v>+7%</v>
       </c>
-      <c r="Q9" s="25" t="str">
+      <c r="Q9" s="23" t="str">
         <f>TEXT(q!E4/q!$E4-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="R9" s="24" t="str">
+      <c r="R9" s="22" t="str">
         <f>TEXT(q!F4/q!$E4-1,"+0%;-0%")</f>
         <v>-7%</v>
       </c>
-      <c r="S9" s="26" t="str">
+      <c r="S9" s="24" t="str">
         <f>TEXT(q!G4/q!$E4-1,"0%;-0%")</f>
         <v>-14%</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="37" t="str">
+      <c r="Z9" s="35" t="str">
         <f>TEXT(q!C4/q!$E4-1,"+0%;-0%")</f>
         <v>+14%</v>
       </c>
-      <c r="AA9" s="24" t="str">
+      <c r="AA9" s="22" t="str">
         <f>TEXT(q!D4/q!$E4-1,"+0%;-0%")</f>
         <v>+7%</v>
       </c>
-      <c r="AB9" s="25" t="str">
+      <c r="AB9" s="23" t="str">
         <f>TEXT(q!E4/q!$E4-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="AC9" s="24" t="str">
+      <c r="AC9" s="22" t="str">
         <f>TEXT(q!F4/q!$E4-1,"+0%;-0%")</f>
         <v>-7%</v>
       </c>
-      <c r="AD9" s="26" t="str">
+      <c r="AD9" s="24" t="str">
         <f>TEXT(q!G4/q!$E4-1,"0%;-0%")</f>
         <v>-14%</v>
       </c>
-      <c r="AE9" s="38" t="s">
+      <c r="AE9" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <f>q!C3</f>
         <v>625950.53603802819</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="37">
         <f>q!D3</f>
         <v>577046.61926162674</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <f>q!E3</f>
         <v>528361.0167500003</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <f>q!F3</f>
         <v>480007.04150898068</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="39">
         <f>q!G3</f>
         <v>432316.57722824608</v>
       </c>
-      <c r="O10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="Z10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="31"/>
+      <c r="K10" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="Z10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="29"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="40">
         <f>q!C4</f>
         <v>727067.79700936773</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <f>q!D4</f>
         <v>681972.43893377879</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="41">
         <f>q!E4</f>
         <v>636887.51249999902</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <f>q!F4</f>
         <v>591810.00185615243</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="42">
         <f>q!G4</f>
         <v>546754.00989223679</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="43">
         <f>q!C2</f>
         <v>138491.18776096491</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="32">
         <f>q!D2</f>
         <v>112073.9283006155</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="33">
         <f>q!E2</f>
         <v>91523.498000000007</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="32">
         <f>q!F2</f>
         <v>76152.118236504612</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="34">
         <f>q!G2</f>
         <v>65564.820238493077</v>
       </c>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="45">
+      <c r="Z11" s="43">
         <f>q!C2</f>
         <v>138491.18776096491</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11" s="32">
         <f>q!D2</f>
         <v>112073.9283006155</v>
       </c>
-      <c r="AB11" s="35">
+      <c r="AB11" s="33">
         <f>q!E2</f>
         <v>91523.498000000007</v>
       </c>
-      <c r="AC11" s="34">
+      <c r="AC11" s="32">
         <f>q!F2</f>
         <v>76152.118236504612</v>
       </c>
-      <c r="AD11" s="36">
+      <c r="AD11" s="34">
         <f>q!G2</f>
         <v>65564.820238493077</v>
       </c>
-      <c r="AE11" s="28" t="s">
+      <c r="AE11" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="L12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="47">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="45">
         <f>q!C3</f>
         <v>625950.53603802819</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="37">
         <f>q!D3</f>
         <v>577046.61926162674</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="38">
         <f>q!E3</f>
         <v>528361.0167500003</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="37">
         <f>q!F3</f>
         <v>480007.04150898068</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="39">
         <f>q!G3</f>
         <v>432316.57722824608</v>
       </c>
-      <c r="T12" s="33" t="s">
+      <c r="T12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="47">
+      <c r="W12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="45">
         <f>q!C3</f>
         <v>625950.53603802819</v>
       </c>
-      <c r="AA12" s="39">
+      <c r="AA12" s="37">
         <f>q!D3</f>
         <v>577046.61926162674</v>
       </c>
-      <c r="AB12" s="40">
+      <c r="AB12" s="38">
         <f>q!E3</f>
         <v>528361.0167500003</v>
       </c>
-      <c r="AC12" s="39">
+      <c r="AC12" s="37">
         <f>q!F3</f>
         <v>480007.04150898068</v>
       </c>
-      <c r="AD12" s="41">
+      <c r="AD12" s="39">
         <f>q!G3</f>
         <v>432316.57722824608</v>
       </c>
-      <c r="AE12" s="33" t="s">
+      <c r="AE12" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="L13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="49">
+      <c r="B13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="L13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="47">
         <f>q!C4</f>
         <v>727067.79700936773</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="40">
         <f>q!D4</f>
         <v>681972.43893377879</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="41">
         <f>q!E4</f>
         <v>636887.51249999902</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="40">
         <f>q!F4</f>
         <v>591810.00185615243</v>
       </c>
-      <c r="S13" s="44">
+      <c r="S13" s="42">
         <f>q!G4</f>
         <v>546754.00989223679</v>
       </c>
-      <c r="T13" s="38" t="s">
+      <c r="T13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="W13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="X13" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" s="49">
+      <c r="W13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="47">
         <f>q!C4</f>
         <v>727067.79700936773</v>
       </c>
-      <c r="AA13" s="42">
+      <c r="AA13" s="40">
         <f>q!D4</f>
         <v>681972.43893377879</v>
       </c>
-      <c r="AB13" s="43">
+      <c r="AB13" s="41">
         <f>q!E4</f>
         <v>636887.51249999902</v>
       </c>
-      <c r="AC13" s="42">
+      <c r="AC13" s="40">
         <f>q!F4</f>
         <v>591810.00185615243</v>
       </c>
-      <c r="AD13" s="44">
+      <c r="AD13" s="42">
         <f>q!G4</f>
         <v>546754.00989223679</v>
       </c>
-      <c r="AE13" s="38" t="s">
+      <c r="AE13" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="L14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="46"/>
-      <c r="W14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="X14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB14" s="46"/>
+      <c r="B14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="L14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="44"/>
+      <c r="W14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="44"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="53" t="str">
+      <c r="B15" s="51" t="str">
         <f>TEXT(pbase!A2,"+0%;-0%")</f>
         <v>-75%</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="52">
         <f>pbase!C2</f>
         <v>51.172309782608579</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="28"/>
-      <c r="K15" s="52" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="53" t="str">
+      <c r="L15" s="51" t="str">
         <f>TEXT(pbase!A2,"+0%;-0%")</f>
         <v>-75%</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="52">
         <f>pbase!C2</f>
         <v>51.172309782608579</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="104">
         <f>p_temprisk!C2</f>
         <v>32.118405397964381</v>
       </c>
-      <c r="P15" s="56">
+      <c r="P15" s="104">
         <f>p_temprisk!D2</f>
         <v>17.395792574599898</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="105">
         <f>p_temprisk!E2</f>
         <v>1.4210854715202001E-14</v>
       </c>
-      <c r="R15" s="58">
+      <c r="R15" s="106">
         <f>p_temprisk!F2</f>
         <v>-19.225604502579301</v>
       </c>
-      <c r="S15" s="56">
+      <c r="S15" s="104">
         <f>p_temprisk!G2</f>
         <v>-37.787513578366941</v>
       </c>
-      <c r="V15" s="52" t="s">
+      <c r="V15" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W15" s="53" t="str">
+      <c r="W15" s="51" t="str">
         <f>TEXT(pbase!A2,"+0%;-0%")</f>
         <v>-75%</v>
       </c>
-      <c r="X15" s="54">
+      <c r="X15" s="52">
         <f>pbase!C2</f>
         <v>51.172309782608579</v>
       </c>
-      <c r="Z15" s="56">
+      <c r="Z15" s="54">
         <f>r_temprisk!C2/1000000</f>
         <v>4.4481161125522748</v>
       </c>
-      <c r="AA15" s="56">
+      <c r="AA15" s="54">
         <f>r_temprisk!D2/1000000</f>
         <v>1.9496148097380892</v>
       </c>
-      <c r="AB15" s="57">
+      <c r="AB15" s="55">
         <f>r_temprisk!E2/1000000</f>
         <v>1.3006271331050811E-15</v>
       </c>
-      <c r="AC15" s="58">
+      <c r="AC15" s="56">
         <f>r_temprisk!F2/1000000</f>
         <v>-1.4640705072486941</v>
       </c>
-      <c r="AD15" s="56">
+      <c r="AD15" s="54">
         <f>r_temprisk!G2/1000000</f>
         <v>-2.4775315350252449</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="60" t="str">
+      <c r="B16" s="58" t="str">
         <f>B15</f>
         <v>-75%</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="59">
         <f>pbase!C3</f>
         <v>66.623946355816813</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="33"/>
-      <c r="K16" s="59" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="31"/>
+      <c r="K16" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="60" t="str">
+      <c r="L16" s="58" t="str">
         <f>B15</f>
         <v>-75%</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="59">
         <f>pbase!C3</f>
         <v>66.623946355816813</v>
       </c>
-      <c r="O16" s="63">
+      <c r="O16" s="107">
         <f>p_temprisk!C3</f>
         <v>-2.0911925809499929</v>
       </c>
-      <c r="P16" s="63">
+      <c r="P16" s="107">
         <f>p_temprisk!D3</f>
         <v>-1.130169439366014</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="108">
         <f>p_temprisk!E3</f>
         <v>0</v>
       </c>
-      <c r="R16" s="65">
+      <c r="R16" s="109">
         <f>p_temprisk!F3</f>
         <v>1.3445511170564119</v>
       </c>
-      <c r="S16" s="63">
+      <c r="S16" s="107">
         <f>p_temprisk!G3</f>
         <v>2.9537037504787662</v>
       </c>
-      <c r="V16" s="59" t="s">
+      <c r="V16" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="60" t="str">
+      <c r="W16" s="58" t="str">
         <f>B15</f>
         <v>-75%</v>
       </c>
-      <c r="X16" s="61">
+      <c r="X16" s="59">
         <f>pbase!C3</f>
         <v>66.623946355816813</v>
       </c>
-      <c r="Z16" s="63">
+      <c r="Z16" s="61">
         <f>r_temprisk!C3/1000000</f>
         <v>-1.308983117004396</v>
       </c>
-      <c r="AA16" s="63">
+      <c r="AA16" s="61">
         <f>r_temprisk!D3/1000000</f>
         <v>-0.65216045417896662</v>
       </c>
-      <c r="AB16" s="64">
+      <c r="AB16" s="62">
         <f>r_temprisk!E3/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="65">
+      <c r="AC16" s="63">
         <f>r_temprisk!F3/1000000</f>
         <v>0.64539400385584345</v>
       </c>
-      <c r="AD16" s="63">
+      <c r="AD16" s="61">
         <f>r_temprisk!G3/1000000</f>
         <v>1.2769350955532139</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="67" t="str">
+      <c r="B17" s="65" t="str">
         <f>B16</f>
         <v>-75%</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="66">
         <f>pbase!C4</f>
         <v>73.522500000000349</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="38"/>
-      <c r="K17" s="66" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="36"/>
+      <c r="K17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="67" t="str">
+      <c r="L17" s="65" t="str">
         <f>B16</f>
         <v>-75%</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="66">
         <f>pbase!C4</f>
         <v>73.522500000000349</v>
       </c>
-      <c r="O17" s="70">
+      <c r="O17" s="110">
         <f>p_temprisk!C4</f>
         <v>-14.211629409021301</v>
       </c>
-      <c r="P17" s="70">
+      <c r="P17" s="110">
         <f>p_temprisk!D4</f>
         <v>-7.5747349505830934</v>
       </c>
-      <c r="Q17" s="71">
+      <c r="Q17" s="111">
         <f>p_temprisk!E4</f>
         <v>0</v>
       </c>
-      <c r="R17" s="72">
+      <c r="R17" s="112">
         <f>p_temprisk!F4</f>
         <v>8.7271895630262577</v>
       </c>
-      <c r="S17" s="70">
+      <c r="S17" s="110">
         <f>p_temprisk!G4</f>
         <v>18.887835939159171</v>
       </c>
-      <c r="V17" s="66" t="s">
+      <c r="V17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="W17" s="67" t="str">
+      <c r="W17" s="65" t="str">
         <f>B16</f>
         <v>-75%</v>
       </c>
-      <c r="X17" s="68">
+      <c r="X17" s="66">
         <f>pbase!C4</f>
         <v>73.522500000000349</v>
       </c>
-      <c r="Z17" s="70">
+      <c r="Z17" s="68">
         <f>r_temprisk!C4/1000000</f>
         <v>-10.33281808633066</v>
       </c>
-      <c r="AA17" s="70">
+      <c r="AA17" s="68">
         <f>r_temprisk!D4/1000000</f>
         <v>-5.1657604685260878</v>
       </c>
-      <c r="AB17" s="71">
+      <c r="AB17" s="69">
         <f>r_temprisk!E4/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="72">
+      <c r="AC17" s="70">
         <f>r_temprisk!F4/1000000</f>
         <v>5.1648380714935644</v>
       </c>
-      <c r="AD17" s="70">
+      <c r="AD17" s="68">
         <f>r_temprisk!G4/1000000</f>
         <v>10.32700003792198</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="53" t="str">
+      <c r="B18" s="51" t="str">
         <f>TEXT(pbase!A5,"+0%;-0%")</f>
         <v>-50%</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="52">
         <f>pbase!C5</f>
         <v>102.3446195652172</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="28"/>
-      <c r="K18" s="52" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="53" t="str">
+      <c r="L18" s="51" t="str">
         <f>TEXT(pbase!A5,"+0%;-0%")</f>
         <v>-50%</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="52">
         <f>pbase!C5</f>
         <v>102.3446195652172</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="104">
         <f>p_temprisk!C5</f>
         <v>49.585595639511531</v>
       </c>
-      <c r="P18" s="56">
+      <c r="P18" s="104">
         <f>p_temprisk!D5</f>
         <v>26.869985082530821</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="105">
         <f>p_temprisk!E5</f>
         <v>7.1054273576010019E-15</v>
       </c>
-      <c r="R18" s="58">
+      <c r="R18" s="106">
         <f>p_temprisk!F5</f>
         <v>-29.730988807613929</v>
       </c>
-      <c r="S18" s="56">
+      <c r="S18" s="104">
         <f>p_temprisk!G5</f>
         <v>-58.470610000652393</v>
       </c>
-      <c r="V18" s="52" t="s">
+      <c r="V18" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W18" s="53" t="str">
+      <c r="W18" s="51" t="str">
         <f>TEXT(pbase!A5,"+0%;-0%")</f>
         <v>-50%</v>
       </c>
-      <c r="X18" s="54">
+      <c r="X18" s="52">
         <f>pbase!C5</f>
         <v>102.3446195652172</v>
       </c>
-      <c r="Z18" s="56">
+      <c r="Z18" s="54">
         <f>r_temprisk!C5/1000000</f>
         <v>6.8671680359508755</v>
       </c>
-      <c r="AA18" s="56">
+      <c r="AA18" s="54">
         <f>r_temprisk!D5/1000000</f>
         <v>3.011424781578167</v>
       </c>
-      <c r="AB18" s="57">
+      <c r="AB18" s="55">
         <f>r_temprisk!E5/1000000</f>
         <v>6.5031356655254064E-16</v>
       </c>
-      <c r="AC18" s="58">
+      <c r="AC18" s="56">
         <f>r_temprisk!F5/1000000</f>
         <v>-2.2640777749656107</v>
       </c>
-      <c r="AD18" s="56">
+      <c r="AD18" s="54">
         <f>r_temprisk!G5/1000000</f>
         <v>-3.833615033927809</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="60" t="str">
+      <c r="B19" s="58" t="str">
         <f>B18</f>
         <v>-50%</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="59">
         <f>pbase!C6</f>
         <v>133.2478927116336</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="33"/>
-      <c r="K19" s="59" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="31"/>
+      <c r="K19" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="60" t="str">
+      <c r="L19" s="58" t="str">
         <f>B18</f>
         <v>-50%</v>
       </c>
-      <c r="M19" s="61">
+      <c r="M19" s="59">
         <f>pbase!C6</f>
         <v>133.2478927116336</v>
       </c>
-      <c r="O19" s="63">
+      <c r="O19" s="107">
         <f>p_temprisk!C6</f>
         <v>7.2644803177999364</v>
       </c>
-      <c r="P19" s="63">
+      <c r="P19" s="107">
         <f>p_temprisk!D6</f>
         <v>3.9342582105868331</v>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q19" s="108">
         <f>p_temprisk!E6</f>
         <v>0</v>
       </c>
-      <c r="R19" s="65">
+      <c r="R19" s="109">
         <f>p_temprisk!F6</f>
         <v>-4.7070866137006533</v>
       </c>
-      <c r="S19" s="63">
+      <c r="S19" s="107">
         <f>p_temprisk!G6</f>
         <v>-10.40408698647445</v>
       </c>
-      <c r="V19" s="59" t="s">
+      <c r="V19" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="60" t="str">
+      <c r="W19" s="58" t="str">
         <f>B18</f>
         <v>-50%</v>
       </c>
-      <c r="X19" s="61">
+      <c r="X19" s="59">
         <f>pbase!C6</f>
         <v>133.2478927116336</v>
       </c>
-      <c r="Z19" s="63">
+      <c r="Z19" s="61">
         <f>r_temprisk!C6/1000000</f>
         <v>4.5472053489645754</v>
       </c>
-      <c r="AA19" s="63">
+      <c r="AA19" s="61">
         <f>r_temprisk!D6/1000000</f>
         <v>2.2702503997214292</v>
       </c>
-      <c r="AB19" s="64">
+      <c r="AB19" s="62">
         <f>r_temprisk!E6/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="65">
+      <c r="AC19" s="63">
         <f>r_temprisk!F6/1000000</f>
         <v>-2.259434719568977</v>
       </c>
-      <c r="AD19" s="63">
+      <c r="AD19" s="61">
         <f>r_temprisk!G6/1000000</f>
         <v>-4.4978592751775706</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="67" t="str">
+      <c r="B20" s="65" t="str">
         <f>B19</f>
         <v>-50%</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="66">
         <f>pbase!C7</f>
         <v>147.0450000000007</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="38"/>
-      <c r="K20" s="66" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="36"/>
+      <c r="K20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="67" t="str">
+      <c r="L20" s="65" t="str">
         <f>B19</f>
         <v>-50%</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="66">
         <f>pbase!C7</f>
         <v>147.0450000000007</v>
       </c>
-      <c r="O20" s="70">
+      <c r="O20" s="110">
         <f>p_temprisk!C7</f>
         <v>-5.9470258741309578</v>
       </c>
-      <c r="P20" s="70">
+      <c r="P20" s="110">
         <f>p_temprisk!D7</f>
         <v>-3.1696200563573882</v>
       </c>
-      <c r="Q20" s="71">
+      <c r="Q20" s="111">
         <f>p_temprisk!E7</f>
         <v>0</v>
       </c>
-      <c r="R20" s="72">
+      <c r="R20" s="112">
         <f>p_temprisk!F7</f>
         <v>3.651666158456266</v>
       </c>
-      <c r="S20" s="70">
+      <c r="S20" s="110">
         <f>p_temprisk!G7</f>
         <v>7.9025160596307842</v>
       </c>
-      <c r="V20" s="66" t="s">
+      <c r="V20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="W20" s="67" t="str">
+      <c r="W20" s="65" t="str">
         <f>B19</f>
         <v>-50%</v>
       </c>
-      <c r="X20" s="68">
+      <c r="X20" s="66">
         <f>pbase!C7</f>
         <v>147.0450000000007</v>
       </c>
-      <c r="Z20" s="70">
+      <c r="Z20" s="68">
         <f>r_temprisk!C7/1000000</f>
         <v>-4.3238910010621039</v>
       </c>
-      <c r="AA20" s="70">
+      <c r="AA20" s="68">
         <f>r_temprisk!D7/1000000</f>
         <v>-2.161593520327469</v>
       </c>
-      <c r="AB20" s="71">
+      <c r="AB20" s="69">
         <f>r_temprisk!E7/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="72">
+      <c r="AC20" s="70">
         <f>r_temprisk!F7/1000000</f>
         <v>2.1610925560140521</v>
       </c>
-      <c r="AD20" s="70">
+      <c r="AD20" s="68">
         <f>r_temprisk!G7/1000000</f>
         <v>4.3207323438409295</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="51" t="str">
         <f>TEXT(pbase!A8,"+0%;-0%")</f>
         <v>-25%</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="52">
         <f>pbase!C8</f>
         <v>153.5169293478269</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="28"/>
-      <c r="K21" s="52" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="26"/>
+      <c r="K21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="53" t="str">
+      <c r="L21" s="51" t="str">
         <f>TEXT(pbase!A8,"+0%;-0%")</f>
         <v>-25%</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="52">
         <f>pbase!C8</f>
         <v>153.5169293478269</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="104">
         <f>p_temprisk!C8</f>
         <v>67.052785881058611</v>
       </c>
-      <c r="P21" s="56">
+      <c r="P21" s="104">
         <f>p_temprisk!D8</f>
         <v>36.344177590461783</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="105">
         <f>p_temprisk!E8</f>
         <v>7.1054273576010019E-15</v>
       </c>
-      <c r="R21" s="58">
+      <c r="R21" s="106">
         <f>p_temprisk!F8</f>
         <v>-40.236373112648657</v>
       </c>
-      <c r="S21" s="56">
+      <c r="S21" s="104">
         <f>p_temprisk!G8</f>
         <v>-79.153706422937745</v>
       </c>
-      <c r="V21" s="52" t="s">
+      <c r="V21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W21" s="53" t="str">
+      <c r="W21" s="51" t="str">
         <f>TEXT(pbase!A8,"+0%;-0%")</f>
         <v>-25%</v>
       </c>
-      <c r="X21" s="54">
+      <c r="X21" s="52">
         <f>pbase!C8</f>
         <v>153.5169293478269</v>
       </c>
-      <c r="Z21" s="56">
+      <c r="Z21" s="54">
         <f>r_temprisk!C8/1000000</f>
         <v>9.2862199593494665</v>
       </c>
-      <c r="AA21" s="56">
+      <c r="AA21" s="54">
         <f>r_temprisk!D8/1000000</f>
         <v>4.0732347534182498</v>
       </c>
-      <c r="AB21" s="57">
+      <c r="AB21" s="55">
         <f>r_temprisk!E8/1000000</f>
         <v>6.5031356655254064E-16</v>
       </c>
-      <c r="AC21" s="58">
+      <c r="AC21" s="56">
         <f>r_temprisk!F8/1000000</f>
         <v>-3.0640850426825361</v>
       </c>
-      <c r="AD21" s="56">
+      <c r="AD21" s="54">
         <f>r_temprisk!G8/1000000</f>
         <v>-5.1896985328303682</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="60" t="str">
+      <c r="B22" s="58" t="str">
         <f>B21</f>
         <v>-25%</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="59">
         <f>pbase!C9</f>
         <v>199.87183906745241</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="33"/>
-      <c r="K22" s="59" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="31"/>
+      <c r="K22" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="60" t="str">
+      <c r="L22" s="58" t="str">
         <f>B21</f>
         <v>-25%</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="59">
         <f>pbase!C9</f>
         <v>199.87183906745241</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="107">
         <f>p_temprisk!C9</f>
         <v>16.620153216549848</v>
       </c>
-      <c r="P22" s="63">
+      <c r="P22" s="107">
         <f>p_temprisk!D9</f>
         <v>8.9986858605397515</v>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q22" s="108">
         <f>p_temprisk!E9</f>
         <v>0</v>
       </c>
-      <c r="R22" s="65">
+      <c r="R22" s="109">
         <f>p_temprisk!F9</f>
         <v>-10.758724344457651</v>
       </c>
-      <c r="S22" s="63">
+      <c r="S22" s="107">
         <f>p_temprisk!G9</f>
         <v>-23.76187772342762</v>
       </c>
-      <c r="V22" s="59" t="s">
+      <c r="V22" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="60" t="str">
+      <c r="W22" s="58" t="str">
         <f>B21</f>
         <v>-25%</v>
       </c>
-      <c r="X22" s="61">
+      <c r="X22" s="59">
         <f>pbase!C9</f>
         <v>199.87183906745241</v>
       </c>
-      <c r="Z22" s="63">
+      <c r="Z22" s="61">
         <f>r_temprisk!C9/1000000</f>
         <v>10.403393814933541</v>
       </c>
-      <c r="AA22" s="63">
+      <c r="AA22" s="61">
         <f>r_temprisk!D9/1000000</f>
         <v>5.1926612536218659</v>
       </c>
-      <c r="AB22" s="64">
+      <c r="AB22" s="62">
         <f>r_temprisk!E9/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="65">
+      <c r="AC22" s="63">
         <f>r_temprisk!F9/1000000</f>
         <v>-5.1642634429937635</v>
       </c>
-      <c r="AD22" s="63">
+      <c r="AD22" s="61">
         <f>r_temprisk!G9/1000000</f>
         <v>-10.27265364590834</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="67" t="str">
+      <c r="B23" s="65" t="str">
         <f>B22</f>
         <v>-25%</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="66">
         <f>pbase!C10</f>
         <v>220.56750000000079</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="38"/>
-      <c r="K23" s="66" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="36"/>
+      <c r="K23" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="67" t="str">
+      <c r="L23" s="65" t="str">
         <f>B22</f>
         <v>-25%</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="66">
         <f>pbase!C10</f>
         <v>220.56750000000079</v>
       </c>
-      <c r="O23" s="70">
+      <c r="O23" s="110">
         <f>p_temprisk!C10</f>
         <v>2.3175776607594969</v>
       </c>
-      <c r="P23" s="70">
+      <c r="P23" s="110">
         <f>p_temprisk!D10</f>
         <v>1.235494837868373</v>
       </c>
-      <c r="Q23" s="64">
+      <c r="Q23" s="108">
         <f>p_temprisk!E10</f>
         <v>0</v>
       </c>
-      <c r="R23" s="72">
+      <c r="R23" s="112">
         <f>p_temprisk!F10</f>
         <v>-1.4238572461137271</v>
       </c>
-      <c r="S23" s="70">
+      <c r="S23" s="110">
         <f>p_temprisk!G10</f>
         <v>-3.082803819897407</v>
       </c>
-      <c r="V23" s="66" t="s">
+      <c r="V23" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="W23" s="67" t="str">
+      <c r="W23" s="65" t="str">
         <f>B22</f>
         <v>-25%</v>
       </c>
-      <c r="X23" s="68">
+      <c r="X23" s="66">
         <f>pbase!C10</f>
         <v>220.56750000000079</v>
       </c>
-      <c r="Z23" s="70">
+      <c r="Z23" s="68">
         <f>r_temprisk!C10/1000000</f>
         <v>1.6850360842065311</v>
       </c>
-      <c r="AA23" s="70">
+      <c r="AA23" s="68">
         <f>r_temprisk!D10/1000000</f>
         <v>0.84257342787118794</v>
       </c>
-      <c r="AB23" s="64">
+      <c r="AB23" s="62">
         <f>r_temprisk!E10/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="72">
+      <c r="AC23" s="70">
         <f>r_temprisk!F10/1000000</f>
         <v>-0.84265295946546059</v>
       </c>
-      <c r="AD23" s="70">
+      <c r="AD23" s="68">
         <f>r_temprisk!G10/1000000</f>
         <v>-1.6855353502400119</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="74" t="str">
+      <c r="B24" s="72" t="str">
         <f>TEXT(pbase!A11,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="73">
         <f>pbase!C11</f>
         <v>204.68923913043429</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="55"/>
-      <c r="K24" s="73" t="s">
+      <c r="D24" s="44"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="53"/>
+      <c r="K24" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="74" t="str">
+      <c r="L24" s="72" t="str">
         <f>TEXT(pbase!A11,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="M24" s="75">
+      <c r="M24" s="73">
         <f>pbase!C11</f>
         <v>204.68923913043429</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="57">
+      <c r="N24" s="44"/>
+      <c r="O24" s="105">
         <f>p_temprisk!C11</f>
         <v>84.519976122605826</v>
       </c>
-      <c r="P24" s="79">
+      <c r="P24" s="113">
         <f>p_temprisk!D11</f>
         <v>45.818370098392663</v>
       </c>
-      <c r="Q24" s="80">
-        <f>p_temprisk!E11</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="81">
+      <c r="Q24" s="101">
+        <f>p_procurement!E11</f>
+        <v>-43.201277292544987</v>
+      </c>
+      <c r="R24" s="116">
         <f>p_temprisk!F11</f>
         <v>-50.741757417683203</v>
       </c>
-      <c r="S24" s="57">
+      <c r="S24" s="105">
         <f>p_temprisk!G11</f>
         <v>-99.836802845223261</v>
       </c>
-      <c r="V24" s="73" t="s">
+      <c r="V24" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="W24" s="74" t="str">
+      <c r="W24" s="72" t="str">
         <f>TEXT(pbase!A11,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="X24" s="75">
+      <c r="X24" s="73">
         <f>pbase!C11</f>
         <v>204.68923913043429</v>
       </c>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="57">
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="55">
         <f>r_temprisk!C11/1000000</f>
         <v>11.705271882748081</v>
       </c>
-      <c r="AA24" s="79">
+      <c r="AA24" s="77">
         <f>r_temprisk!D11/1000000</f>
         <v>5.1350447252583242</v>
       </c>
-      <c r="AB24" s="80">
+      <c r="AB24" s="78">
         <f>r_temprisk!E11/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC24" s="81">
+      <c r="AC24" s="79">
         <f>r_temprisk!F11/1000000</f>
         <v>-3.864092310399446</v>
       </c>
-      <c r="AD24" s="57">
+      <c r="AD24" s="55">
         <f>r_temprisk!G11/1000000</f>
         <v>-6.5457820317329372</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="83" t="str">
+      <c r="B25" s="81" t="str">
         <f>B24</f>
         <v>+0%</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="82">
         <f>pbase!C12</f>
         <v>266.49578542326731</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="62"/>
-      <c r="K25" s="82" t="s">
+      <c r="D25" s="44"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="60"/>
+      <c r="K25" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="83" t="str">
+      <c r="L25" s="81" t="str">
         <f>B24</f>
         <v>+0%</v>
       </c>
-      <c r="M25" s="84">
+      <c r="M25" s="82">
         <f>pbase!C12</f>
         <v>266.49578542326731</v>
       </c>
-      <c r="N25" s="46"/>
-      <c r="O25" s="64">
+      <c r="N25" s="44"/>
+      <c r="O25" s="108">
         <f>p_temprisk!C12</f>
         <v>25.975826115299778</v>
       </c>
-      <c r="P25" s="88">
+      <c r="P25" s="114">
         <f>p_temprisk!D12</f>
         <v>14.06311351049253</v>
       </c>
-      <c r="Q25" s="89">
-        <f>p_temprisk!E12</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="90">
+      <c r="Q25" s="102">
+        <f>p_procurement!E12</f>
+        <v>73.421527590743807</v>
+      </c>
+      <c r="R25" s="117">
         <f>p_temprisk!F12</f>
         <v>-16.81036207521478</v>
       </c>
-      <c r="S25" s="64">
+      <c r="S25" s="108">
         <f>p_temprisk!G12</f>
         <v>-37.119668460380872</v>
       </c>
-      <c r="V25" s="82" t="s">
+      <c r="V25" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="83" t="str">
+      <c r="W25" s="81" t="str">
         <f>B24</f>
         <v>+0%</v>
       </c>
-      <c r="X25" s="84">
+      <c r="X25" s="82">
         <f>pbase!C12</f>
         <v>266.49578542326731</v>
       </c>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="64">
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="62">
         <f>r_temprisk!C12/1000000</f>
         <v>16.25958228090251</v>
       </c>
-      <c r="AA25" s="88">
+      <c r="AA25" s="86">
         <f>r_temprisk!D12/1000000</f>
         <v>8.1150721075222201</v>
       </c>
-      <c r="AB25" s="89">
+      <c r="AB25" s="87">
         <f>r_temprisk!E12/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="90">
+      <c r="AC25" s="88">
         <f>r_temprisk!F12/1000000</f>
         <v>-8.069092166418617</v>
       </c>
-      <c r="AD25" s="64">
+      <c r="AD25" s="62">
         <f>r_temprisk!G12/1000000</f>
         <v>-16.047448016639141</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="92" t="str">
+      <c r="B26" s="90" t="str">
         <f>B25</f>
         <v>+0%</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="91">
         <f>pbase!C13</f>
         <v>294.0900000000014</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="69"/>
-      <c r="K26" s="91" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="67"/>
+      <c r="K26" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="92" t="str">
+      <c r="L26" s="90" t="str">
         <f>B25</f>
         <v>+0%</v>
       </c>
-      <c r="M26" s="93">
+      <c r="M26" s="91">
         <f>pbase!C13</f>
         <v>294.0900000000014</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="71">
+      <c r="N26" s="44"/>
+      <c r="O26" s="111">
         <f>p_temprisk!C13</f>
         <v>10.582181195649699</v>
       </c>
-      <c r="P26" s="97">
+      <c r="P26" s="115">
         <f>p_temprisk!D13</f>
         <v>5.6406097320940214</v>
       </c>
-      <c r="Q26" s="98">
-        <f>p_temprisk!E13</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="99">
+      <c r="Q26" s="103">
+        <f>p_procurement!E13</f>
+        <v>181.21194960192739</v>
+      </c>
+      <c r="R26" s="118">
         <f>p_temprisk!F13</f>
         <v>-6.4993806506837188</v>
       </c>
-      <c r="S26" s="71">
+      <c r="S26" s="111">
         <f>p_temprisk!G13</f>
         <v>-14.068123699425939</v>
       </c>
-      <c r="V26" s="91" t="s">
+      <c r="V26" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="W26" s="92" t="str">
+      <c r="W26" s="90" t="str">
         <f>B25</f>
         <v>+0%</v>
       </c>
-      <c r="X26" s="93">
+      <c r="X26" s="91">
         <f>pbase!C13</f>
         <v>294.0900000000014</v>
       </c>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="71">
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="69">
         <f>r_temprisk!C13/1000000</f>
         <v>7.6939631694749817</v>
       </c>
-      <c r="AA26" s="97">
+      <c r="AA26" s="95">
         <f>r_temprisk!D13/1000000</f>
         <v>3.8467403760697678</v>
       </c>
-      <c r="AB26" s="98">
+      <c r="AB26" s="96">
         <f>r_temprisk!E13/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="99">
+      <c r="AC26" s="97">
         <f>r_temprisk!F13/1000000</f>
         <v>-3.8463984749449729</v>
       </c>
-      <c r="AD26" s="71">
+      <c r="AD26" s="69">
         <f>r_temprisk!G13/1000000</f>
         <v>-7.6918030443211416</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="53" t="str">
+      <c r="B27" s="51" t="str">
         <f>TEXT(pbase!A14,"+0%;-0%")</f>
         <v>+25%</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="52">
         <f>pbase!C14</f>
         <v>255.8615489130448</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="28"/>
-      <c r="K27" s="52" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="26"/>
+      <c r="K27" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="53" t="str">
+      <c r="L27" s="51" t="str">
         <f>TEXT(pbase!A14,"+0%;-0%")</f>
         <v>+25%</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="52">
         <f>pbase!C14</f>
         <v>255.8615489130448</v>
       </c>
-      <c r="O27" s="56">
+      <c r="O27" s="104">
         <f>p_temprisk!C14</f>
         <v>101.9871663641529</v>
       </c>
-      <c r="P27" s="56">
+      <c r="P27" s="104">
         <f>p_temprisk!D14</f>
         <v>55.292562606323543</v>
       </c>
-      <c r="Q27" s="64">
+      <c r="Q27" s="108">
         <f>p_temprisk!E14</f>
         <v>7.1054273576010019E-15</v>
       </c>
-      <c r="R27" s="58">
+      <c r="R27" s="106">
         <f>p_temprisk!F14</f>
         <v>-61.247141722717828</v>
       </c>
-      <c r="S27" s="56">
+      <c r="S27" s="104">
         <f>p_temprisk!G14</f>
         <v>-120.51989926750861</v>
       </c>
-      <c r="V27" s="52" t="s">
+      <c r="V27" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W27" s="53" t="str">
+      <c r="W27" s="51" t="str">
         <f>TEXT(pbase!A14,"+0%;-0%")</f>
         <v>+25%</v>
       </c>
-      <c r="X27" s="54">
+      <c r="X27" s="52">
         <f>pbase!C14</f>
         <v>255.8615489130448</v>
       </c>
-      <c r="Z27" s="56">
+      <c r="Z27" s="54">
         <f>r_temprisk!C14/1000000</f>
         <v>14.12432380614667</v>
       </c>
-      <c r="AA27" s="56">
+      <c r="AA27" s="54">
         <f>r_temprisk!D14/1000000</f>
         <v>6.1968546970983986</v>
       </c>
-      <c r="AB27" s="64">
+      <c r="AB27" s="62">
         <f>r_temprisk!E14/1000000</f>
         <v>6.5031356655254064E-16</v>
       </c>
-      <c r="AC27" s="58">
+      <c r="AC27" s="56">
         <f>r_temprisk!F14/1000000</f>
         <v>-4.664099578116363</v>
       </c>
-      <c r="AD27" s="56">
+      <c r="AD27" s="54">
         <f>r_temprisk!G14/1000000</f>
         <v>-7.9018655306354963</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="60" t="str">
+      <c r="B28" s="58" t="str">
         <f>B27</f>
         <v>+25%</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="59">
         <f>pbase!C15</f>
         <v>333.11973177908658</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="33"/>
-      <c r="K28" s="59" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="31"/>
+      <c r="K28" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L28" s="60" t="str">
+      <c r="L28" s="58" t="str">
         <f>B27</f>
         <v>+25%</v>
       </c>
-      <c r="M28" s="61">
+      <c r="M28" s="59">
         <f>pbase!C15</f>
         <v>333.11973177908658</v>
       </c>
-      <c r="O28" s="63">
+      <c r="O28" s="107">
         <f>p_temprisk!C15</f>
         <v>35.331499014049541</v>
       </c>
-      <c r="P28" s="63">
+      <c r="P28" s="107">
         <f>p_temprisk!D15</f>
         <v>19.127541160445389</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="Q28" s="108">
         <f>p_temprisk!E15</f>
         <v>1.4210854715202001E-14</v>
       </c>
-      <c r="R28" s="65">
+      <c r="R28" s="109">
         <f>p_temprisk!F15</f>
         <v>-22.861999805971749</v>
       </c>
-      <c r="S28" s="63">
+      <c r="S28" s="107">
         <f>p_temprisk!G15</f>
         <v>-50.477459197333879</v>
       </c>
-      <c r="V28" s="59" t="s">
+      <c r="V28" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="60" t="str">
+      <c r="W28" s="58" t="str">
         <f>B27</f>
         <v>+25%</v>
       </c>
-      <c r="X28" s="61">
+      <c r="X28" s="59">
         <f>pbase!C15</f>
         <v>333.11973177908658</v>
       </c>
-      <c r="Z28" s="63">
+      <c r="Z28" s="61">
         <f>r_temprisk!C15/1000000</f>
         <v>22.11577074687137</v>
       </c>
-      <c r="AA28" s="63">
+      <c r="AA28" s="61">
         <f>r_temprisk!D15/1000000</f>
         <v>11.03748296142262</v>
       </c>
-      <c r="AB28" s="64">
+      <c r="AB28" s="62">
         <f>r_temprisk!E15/1000000</f>
         <v>7.5084616462106674E-15</v>
       </c>
-      <c r="AC28" s="65">
+      <c r="AC28" s="63">
         <f>r_temprisk!F15/1000000</f>
         <v>-10.97392088984339</v>
       </c>
-      <c r="AD28" s="63">
+      <c r="AD28" s="61">
         <f>r_temprisk!G15/1000000</f>
         <v>-21.82224238736983</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="67" t="str">
+      <c r="B29" s="65" t="str">
         <f>B28</f>
         <v>+25%</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="66">
         <f>pbase!C16</f>
         <v>367.61249999999831</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="38"/>
-      <c r="K29" s="66" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="36"/>
+      <c r="K29" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="67" t="str">
+      <c r="L29" s="65" t="str">
         <f>B28</f>
         <v>+25%</v>
       </c>
-      <c r="M29" s="68">
+      <c r="M29" s="66">
         <f>pbase!C16</f>
         <v>367.61249999999831</v>
       </c>
-      <c r="O29" s="70">
+      <c r="O29" s="110">
         <f>p_temprisk!C16</f>
         <v>18.84678473054004</v>
       </c>
-      <c r="P29" s="70">
+      <c r="P29" s="110">
         <f>p_temprisk!D16</f>
         <v>10.04572462631978</v>
       </c>
-      <c r="Q29" s="71">
+      <c r="Q29" s="111">
         <f>p_temprisk!E16</f>
         <v>0</v>
       </c>
-      <c r="R29" s="72">
+      <c r="R29" s="112">
         <f>p_temprisk!F16</f>
         <v>-11.574904055253651</v>
       </c>
-      <c r="S29" s="70">
+      <c r="S29" s="110">
         <f>p_temprisk!G16</f>
         <v>-25.053443578954219</v>
       </c>
-      <c r="V29" s="66" t="s">
+      <c r="V29" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="67" t="str">
+      <c r="W29" s="65" t="str">
         <f>B28</f>
         <v>+25%</v>
       </c>
-      <c r="X29" s="68">
+      <c r="X29" s="66">
         <f>pbase!C16</f>
         <v>367.61249999999831</v>
       </c>
-      <c r="Z29" s="70">
+      <c r="Z29" s="68">
         <f>r_temprisk!C16/1000000</f>
         <v>13.70289025474354</v>
       </c>
-      <c r="AA29" s="70">
+      <c r="AA29" s="68">
         <f>r_temprisk!D16/1000000</f>
         <v>6.8509073242684249</v>
       </c>
-      <c r="AB29" s="71">
+      <c r="AB29" s="69">
         <f>r_temprisk!E16/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="72">
+      <c r="AC29" s="70">
         <f>r_temprisk!F16/1000000</f>
         <v>-6.850143990424451</v>
       </c>
-      <c r="AD29" s="70">
+      <c r="AD29" s="68">
         <f>r_temprisk!G16/1000000</f>
         <v>-13.69807073840213</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="53" t="str">
+      <c r="B30" s="51" t="str">
         <f>TEXT(pbase!A17,"+0%;-0%")</f>
         <v>+50%</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="52">
         <f>pbase!C17</f>
         <v>307.03385869565381</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="28"/>
-      <c r="K30" s="52" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="26"/>
+      <c r="K30" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="53" t="str">
+      <c r="L30" s="51" t="str">
         <f>TEXT(pbase!A17,"+0%;-0%")</f>
         <v>+50%</v>
       </c>
-      <c r="M30" s="54">
+      <c r="M30" s="52">
         <f>pbase!C17</f>
         <v>307.03385869565381</v>
       </c>
-      <c r="O30" s="56">
+      <c r="O30" s="104">
         <f>p_temprisk!C17</f>
         <v>119.4543566057</v>
       </c>
-      <c r="P30" s="56">
+      <c r="P30" s="104">
         <f>p_temprisk!D17</f>
         <v>64.766755114254565</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="105">
         <f>p_temprisk!E17</f>
         <v>0</v>
       </c>
-      <c r="R30" s="58">
+      <c r="R30" s="106">
         <f>p_temprisk!F17</f>
         <v>-71.752526027752666</v>
       </c>
-      <c r="S30" s="56">
+      <c r="S30" s="104">
         <f>p_temprisk!G17</f>
         <v>-141.20299568979399</v>
       </c>
-      <c r="T30" s="100"/>
-      <c r="V30" s="52" t="s">
+      <c r="T30" s="98"/>
+      <c r="V30" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W30" s="53" t="str">
+      <c r="W30" s="51" t="str">
         <f>TEXT(pbase!A17,"+0%;-0%")</f>
         <v>+50%</v>
       </c>
-      <c r="X30" s="54">
+      <c r="X30" s="52">
         <f>pbase!C17</f>
         <v>307.03385869565381</v>
       </c>
-      <c r="Z30" s="56">
+      <c r="Z30" s="54">
         <f>r_temprisk!C17/1000000</f>
         <v>16.543375729545261</v>
       </c>
-      <c r="AA30" s="56">
+      <c r="AA30" s="54">
         <f>r_temprisk!D17/1000000</f>
         <v>7.2586646689384891</v>
       </c>
-      <c r="AB30" s="57">
+      <c r="AB30" s="55">
         <f>r_temprisk!E17/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="58">
+      <c r="AC30" s="56">
         <f>r_temprisk!F17/1000000</f>
         <v>-5.464106845833296</v>
       </c>
-      <c r="AD30" s="56">
+      <c r="AD30" s="54">
         <f>r_temprisk!G17/1000000</f>
         <v>-9.2579490295380538</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="60" t="str">
+      <c r="B31" s="58" t="str">
         <f>B30</f>
         <v>+50%</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="59">
         <f>pbase!C18</f>
         <v>399.74367813490483</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="33"/>
-      <c r="K31" s="59" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="31"/>
+      <c r="K31" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="60" t="str">
+      <c r="L31" s="58" t="str">
         <f>B30</f>
         <v>+50%</v>
       </c>
-      <c r="M31" s="61">
+      <c r="M31" s="59">
         <f>pbase!C18</f>
         <v>399.74367813490483</v>
       </c>
-      <c r="O31" s="63">
+      <c r="O31" s="107">
         <f>p_temprisk!C18</f>
         <v>44.687171912799599</v>
       </c>
-      <c r="P31" s="63">
+      <c r="P31" s="107">
         <f>p_temprisk!D18</f>
         <v>24.191968810398361</v>
       </c>
-      <c r="Q31" s="64">
+      <c r="Q31" s="108">
         <f>p_temprisk!E18</f>
         <v>0</v>
       </c>
-      <c r="R31" s="65">
+      <c r="R31" s="109">
         <f>p_temprisk!F18</f>
         <v>-28.913637536728789</v>
       </c>
-      <c r="S31" s="63">
+      <c r="S31" s="107">
         <f>p_temprisk!G18</f>
         <v>-63.835249934287233</v>
       </c>
-      <c r="T31" s="100"/>
-      <c r="V31" s="59" t="s">
+      <c r="T31" s="98"/>
+      <c r="V31" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W31" s="60" t="str">
+      <c r="W31" s="58" t="str">
         <f>B30</f>
         <v>+50%</v>
       </c>
-      <c r="X31" s="61">
+      <c r="X31" s="59">
         <f>pbase!C18</f>
         <v>399.74367813490483</v>
       </c>
-      <c r="Z31" s="63">
+      <c r="Z31" s="61">
         <f>r_temprisk!C18/1000000</f>
         <v>27.971959212840432</v>
       </c>
-      <c r="AA31" s="63">
+      <c r="AA31" s="61">
         <f>r_temprisk!D18/1000000</f>
         <v>13.95989381532309</v>
       </c>
-      <c r="AB31" s="64">
+      <c r="AB31" s="62">
         <f>r_temprisk!E18/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="65">
+      <c r="AC31" s="63">
         <f>r_temprisk!F18/1000000</f>
         <v>-13.8787496132682</v>
       </c>
-      <c r="AD31" s="63">
+      <c r="AD31" s="61">
         <f>r_temprisk!G18/1000000</f>
         <v>-27.597036758100682</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="67" t="str">
+      <c r="B32" s="65" t="str">
         <f>B31</f>
         <v>+50%</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="66">
         <f>pbase!C19</f>
         <v>441.13500000000158</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="38"/>
-      <c r="K32" s="66" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="36"/>
+      <c r="K32" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="67" t="str">
+      <c r="L32" s="65" t="str">
         <f>B31</f>
         <v>+50%</v>
       </c>
-      <c r="M32" s="68">
+      <c r="M32" s="66">
         <f>pbase!C19</f>
         <v>441.13500000000158</v>
       </c>
-      <c r="O32" s="70">
+      <c r="O32" s="110">
         <f>p_temprisk!C19</f>
         <v>27.11138826543058</v>
       </c>
-      <c r="P32" s="70">
+      <c r="P32" s="110">
         <f>p_temprisk!D19</f>
         <v>14.450839520545509</v>
       </c>
-      <c r="Q32" s="71">
+      <c r="Q32" s="111">
         <f>p_temprisk!E19</f>
         <v>0</v>
       </c>
-      <c r="R32" s="72">
+      <c r="R32" s="112">
         <f>p_temprisk!F19</f>
         <v>-16.650427459823732</v>
       </c>
-      <c r="S32" s="70">
+      <c r="S32" s="110">
         <f>p_temprisk!G19</f>
         <v>-36.03876345848235</v>
       </c>
-      <c r="T32" s="100"/>
-      <c r="V32" s="66" t="s">
+      <c r="T32" s="98"/>
+      <c r="V32" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="W32" s="67" t="str">
+      <c r="W32" s="65" t="str">
         <f>B31</f>
         <v>+50%</v>
       </c>
-      <c r="X32" s="68">
+      <c r="X32" s="66">
         <f>pbase!C19</f>
         <v>441.13500000000158</v>
       </c>
-      <c r="Z32" s="70">
+      <c r="Z32" s="68">
         <f>r_temprisk!C19/1000000</f>
         <v>19.711817340012232</v>
       </c>
-      <c r="AA32" s="70">
+      <c r="AA32" s="68">
         <f>r_temprisk!D19/1000000</f>
         <v>9.8550742724670641</v>
       </c>
-      <c r="AB32" s="71">
+      <c r="AB32" s="69">
         <f>r_temprisk!E19/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="72">
+      <c r="AC32" s="70">
         <f>r_temprisk!F19/1000000</f>
         <v>-9.8538895059040126</v>
       </c>
-      <c r="AD32" s="70">
+      <c r="AD32" s="68">
         <f>r_temprisk!G19/1000000</f>
         <v>-19.704338432483041</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="53" t="str">
+      <c r="B33" s="51" t="str">
         <f>TEXT(pbase!A20,"+0%;-0%")</f>
         <v>+75%</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="52">
         <f>pbase!C20</f>
         <v>358.20616847826039</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="28"/>
-      <c r="K33" s="52" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="26"/>
+      <c r="K33" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L33" s="53" t="str">
+      <c r="L33" s="51" t="str">
         <f>TEXT(pbase!A20,"+0%;-0%")</f>
         <v>+75%</v>
       </c>
-      <c r="M33" s="54">
+      <c r="M33" s="52">
         <f>pbase!C20</f>
         <v>358.20616847826039</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O33" s="104">
         <f>p_temprisk!C20</f>
         <v>136.92154684724741</v>
       </c>
-      <c r="P33" s="56">
+      <c r="P33" s="104">
         <f>p_temprisk!D20</f>
         <v>74.240947622185502</v>
       </c>
-      <c r="Q33" s="57">
+      <c r="Q33" s="105">
         <f>p_temprisk!E20</f>
         <v>-3.5527136788005009E-14</v>
       </c>
-      <c r="R33" s="58">
+      <c r="R33" s="106">
         <f>p_temprisk!F20</f>
         <v>-82.25791033278739</v>
       </c>
-      <c r="S33" s="56">
+      <c r="S33" s="104">
         <f>p_temprisk!G20</f>
         <v>-161.88609211207969</v>
       </c>
-      <c r="T33" s="100"/>
-      <c r="V33" s="52" t="s">
+      <c r="T33" s="98"/>
+      <c r="V33" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W33" s="53" t="str">
+      <c r="W33" s="51" t="str">
         <f>TEXT(pbase!A20,"+0%;-0%")</f>
         <v>+75%</v>
       </c>
-      <c r="X33" s="54">
+      <c r="X33" s="52">
         <f>pbase!C20</f>
         <v>358.20616847826039</v>
       </c>
-      <c r="Z33" s="56">
+      <c r="Z33" s="54">
         <f>r_temprisk!C20/1000000</f>
         <v>18.962427652943902</v>
       </c>
-      <c r="AA33" s="56">
+      <c r="AA33" s="54">
         <f>r_temprisk!D20/1000000</f>
         <v>8.3204746407785688</v>
       </c>
-      <c r="AB33" s="57">
+      <c r="AB33" s="55">
         <f>r_temprisk!E20/1000000</f>
         <v>-3.251567832762703E-15</v>
       </c>
-      <c r="AC33" s="58">
+      <c r="AC33" s="56">
         <f>r_temprisk!F20/1000000</f>
         <v>-6.2641141135502201</v>
       </c>
-      <c r="AD33" s="56">
+      <c r="AD33" s="54">
         <f>r_temprisk!G20/1000000</f>
         <v>-10.614032528440639</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="60" t="str">
+      <c r="B34" s="58" t="str">
         <f>B33</f>
         <v>+75%</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="59">
         <f>pbase!C21</f>
         <v>466.3676244907237</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="33"/>
-      <c r="K34" s="59" t="s">
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="31"/>
+      <c r="K34" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L34" s="60" t="str">
+      <c r="L34" s="58" t="str">
         <f>B33</f>
         <v>+75%</v>
       </c>
-      <c r="M34" s="61">
+      <c r="M34" s="59">
         <f>pbase!C21</f>
         <v>466.3676244907237</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="107">
         <f>p_temprisk!C21</f>
         <v>54.042844811549571</v>
       </c>
-      <c r="P34" s="63">
+      <c r="P34" s="107">
         <f>p_temprisk!D21</f>
         <v>29.25639646035113</v>
       </c>
-      <c r="Q34" s="64">
+      <c r="Q34" s="108">
         <f>p_temprisk!E21</f>
         <v>-1.4210854715202001E-14</v>
       </c>
-      <c r="R34" s="65">
+      <c r="R34" s="109">
         <f>p_temprisk!F21</f>
         <v>-34.965275267486128</v>
       </c>
-      <c r="S34" s="63">
+      <c r="S34" s="107">
         <f>p_temprisk!G21</f>
         <v>-77.1930406712398</v>
       </c>
-      <c r="T34" s="100"/>
-      <c r="V34" s="59" t="s">
+      <c r="T34" s="98"/>
+      <c r="V34" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="60" t="str">
+      <c r="W34" s="58" t="str">
         <f>B33</f>
         <v>+75%</v>
       </c>
-      <c r="X34" s="61">
+      <c r="X34" s="59">
         <f>pbase!C21</f>
         <v>466.3676244907237</v>
       </c>
-      <c r="Z34" s="63">
+      <c r="Z34" s="61">
         <f>r_temprisk!C21/1000000</f>
         <v>33.82814767880943</v>
       </c>
-      <c r="AA34" s="63">
+      <c r="AA34" s="61">
         <f>r_temprisk!D21/1000000</f>
         <v>16.882304669223441</v>
       </c>
-      <c r="AB34" s="64">
+      <c r="AB34" s="62">
         <f>r_temprisk!E21/1000000</f>
         <v>-7.5084616462106674E-15</v>
       </c>
-      <c r="AC34" s="65">
+      <c r="AC34" s="63">
         <f>r_temprisk!F21/1000000</f>
         <v>-16.78357833669315</v>
       </c>
-      <c r="AD34" s="63">
+      <c r="AD34" s="61">
         <f>r_temprisk!G21/1000000</f>
         <v>-33.37183112883119</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="67" t="str">
+      <c r="B35" s="65" t="str">
         <f>B34</f>
         <v>+75%</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="66">
         <f>pbase!C22</f>
         <v>514.65750000000037</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="38"/>
-      <c r="K35" s="66" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="36"/>
+      <c r="K35" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="67" t="str">
+      <c r="L35" s="65" t="str">
         <f>B34</f>
         <v>+75%</v>
       </c>
-      <c r="M35" s="68">
+      <c r="M35" s="66">
         <f>pbase!C22</f>
         <v>514.65750000000037</v>
       </c>
-      <c r="O35" s="70">
+      <c r="O35" s="110">
         <f>p_temprisk!C22</f>
         <v>35.375991800320861</v>
       </c>
-      <c r="P35" s="70">
+      <c r="P35" s="110">
         <f>p_temprisk!D22</f>
         <v>18.85595441477108</v>
       </c>
-      <c r="Q35" s="71">
+      <c r="Q35" s="111">
         <f>p_temprisk!E22</f>
         <v>0</v>
       </c>
-      <c r="R35" s="72">
+      <c r="R35" s="112">
         <f>p_temprisk!F22</f>
         <v>-21.725950864393841</v>
       </c>
-      <c r="S35" s="70">
+      <c r="S35" s="110">
         <f>p_temprisk!G22</f>
         <v>-47.024083338011003</v>
       </c>
-      <c r="T35" s="100"/>
-      <c r="V35" s="66" t="s">
+      <c r="T35" s="98"/>
+      <c r="V35" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="W35" s="67" t="str">
+      <c r="W35" s="65" t="str">
         <f>B34</f>
         <v>+75%</v>
       </c>
-      <c r="X35" s="68">
+      <c r="X35" s="66">
         <f>pbase!C22</f>
         <v>514.65750000000037</v>
       </c>
-      <c r="Z35" s="70">
+      <c r="Z35" s="68">
         <f>r_temprisk!C22/1000000</f>
         <v>25.720744425280749</v>
       </c>
-      <c r="AA35" s="70">
+      <c r="AA35" s="68">
         <f>r_temprisk!D22/1000000</f>
         <v>12.859241220665591</v>
       </c>
-      <c r="AB35" s="71">
+      <c r="AB35" s="69">
         <f>r_temprisk!E22/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="72">
+      <c r="AC35" s="70">
         <f>r_temprisk!F22/1000000</f>
         <v>-12.857635021383588</v>
       </c>
-      <c r="AD35" s="70">
+      <c r="AD35" s="68">
         <f>r_temprisk!G22/1000000</f>
         <v>-25.71060612656423</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AG38" s="101"/>
+      <c r="AG38" s="99"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O15:S15 O18:S18 O21:S21 O24:S24 O27:S27 O30:T30 O33:T33">
+  <conditionalFormatting sqref="O15:S15 O18:S18 O21:S21 O24:P24 O27:S27 O30:T30 O33:T33 R24:S24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3407,7 +3488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O16:S16 O19:S19 O22:S22 O25:S25 O28:S28 O31:T31 O34:T34">
+  <conditionalFormatting sqref="O16:S16 O19:S19 O22:S22 O25:P25 O28:S28 O31:T31 O34:T34 R25:S25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3419,7 +3500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:S17 O20:S20 O23:S23 O26:S26 O29:S29 O32:T32 O35:T35">
+  <conditionalFormatting sqref="O17:S17 O20:S20 O23:S23 O26:P26 O29:S29 O32:T32 O35:T35 R26:S26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3505,7 +3586,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="120">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -3528,7 +3609,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -3549,7 +3630,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -3570,7 +3651,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="120">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -3593,7 +3674,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -3614,7 +3695,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -3635,7 +3716,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="120">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -3658,7 +3739,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -3679,7 +3760,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -3700,7 +3781,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="120">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -3723,7 +3804,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -3744,7 +3825,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -3765,7 +3846,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="120">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -3788,7 +3869,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -3809,7 +3890,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -3830,7 +3911,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="120">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -3853,7 +3934,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -3874,7 +3955,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -3895,7 +3976,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="120">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -3918,7 +3999,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -3939,7 +4020,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -3960,7 +4041,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="120">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -3983,7 +4064,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -4004,7 +4085,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -4072,7 +4153,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="120">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -4095,7 +4176,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -4116,7 +4197,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -4137,7 +4218,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="120">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -4160,7 +4241,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -4181,7 +4262,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -4202,7 +4283,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="120">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -4225,7 +4306,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -4246,7 +4327,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -4267,7 +4348,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="120">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -4290,7 +4371,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -4311,7 +4392,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -4332,7 +4413,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="120">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -4355,7 +4436,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -4376,7 +4457,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -4397,7 +4478,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="120">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -4420,7 +4501,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -4441,7 +4522,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -4462,7 +4543,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="120">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -4485,7 +4566,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -4506,7 +4587,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -4527,7 +4608,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="120">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -4550,7 +4631,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -4571,7 +4652,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -4636,7 +4717,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="120">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -4659,7 +4740,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -4680,7 +4761,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -4701,7 +4782,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="120">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -4724,7 +4805,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -4745,7 +4826,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -4766,7 +4847,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="120">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -4789,7 +4870,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -4810,7 +4891,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -4831,7 +4912,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="120">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -4854,7 +4935,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -4875,7 +4956,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -4896,7 +4977,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="120">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -4919,7 +5000,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -4940,7 +5021,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -4961,7 +5042,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="120">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -4984,7 +5065,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -5005,7 +5086,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -5026,7 +5107,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="120">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -5049,7 +5130,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -5070,7 +5151,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -5091,7 +5172,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="120">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -5114,7 +5195,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -5135,7 +5216,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -5200,7 +5281,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="120">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -5223,7 +5304,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -5244,7 +5325,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -5265,7 +5346,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="120">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -5288,7 +5369,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -5309,7 +5390,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -5330,7 +5411,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="120">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -5353,7 +5434,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -5374,7 +5455,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -5395,7 +5476,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="120">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -5418,7 +5499,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -5439,7 +5520,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -5460,7 +5541,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="120">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -5483,7 +5564,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -5504,7 +5585,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -5525,7 +5606,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="120">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -5548,7 +5629,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -5569,7 +5650,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -5590,7 +5671,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="120">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -5613,7 +5694,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -5634,7 +5715,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -5655,7 +5736,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="120">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -5678,7 +5759,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -5699,7 +5780,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -5731,6 +5812,9 @@
     <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -5764,7 +5848,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="120">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -5787,7 +5871,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -5808,7 +5892,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -5829,7 +5913,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="120">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -5852,7 +5936,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -5873,7 +5957,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -5894,7 +5978,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="120">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -5917,7 +6001,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -5938,7 +6022,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -5959,7 +6043,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="120">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -5982,7 +6066,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -6003,7 +6087,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -6024,7 +6108,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="120">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -6047,7 +6131,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -6068,7 +6152,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -6089,7 +6173,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="120">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -6112,7 +6196,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -6133,7 +6217,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -6154,7 +6238,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="120">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -6177,7 +6261,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -6198,7 +6282,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -6219,7 +6303,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="120">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -6242,7 +6326,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -6263,7 +6347,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -6295,6 +6379,9 @@
     <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -6328,7 +6415,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="120">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -6351,7 +6438,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -6372,7 +6459,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -6393,7 +6480,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="120">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -6416,7 +6503,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -6437,7 +6524,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -6458,7 +6545,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="120">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -6481,7 +6568,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -6502,7 +6589,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -6523,7 +6610,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="120">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -6546,7 +6633,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -6567,7 +6654,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -6588,7 +6675,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="120">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -6611,7 +6698,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -6632,7 +6719,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -6653,7 +6740,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="120">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -6676,7 +6763,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -6697,7 +6784,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -6718,7 +6805,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="120">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -6741,7 +6828,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -6762,7 +6849,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -6783,7 +6870,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="120">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -6806,7 +6893,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -6827,7 +6914,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -6859,5 +6946,8 @@
     <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>